--- a/test/xl_transform/writer_test/test_data/ExcelDataFrameWriter/excel/WriteWithVerticalHeader/Result.xlsx
+++ b/test/xl_transform/writer_test/test_data/ExcelDataFrameWriter/excel/WriteWithVerticalHeader/Result.xlsx
@@ -41,6 +41,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,7 +82,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -387,7 +390,7 @@
   <dimension ref="C3:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
